--- a/MechanicalKeyboard.xlsx
+++ b/MechanicalKeyboard.xlsx
@@ -576,7 +576,7 @@
         <v>269900</v>
       </c>
       <c r="D3" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" t="n">
         <v>368900</v>
@@ -613,7 +613,7 @@
         <v>54</v>
       </c>
       <c r="O3" t="n">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4">
@@ -671,108 +671,108 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16402145652</v>
+        <v>11217962329</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bepop Gaming Keyboard  RGB Cable Light K500</t>
+          <t>Keychron K3 version 2 Hot-Swappable WHITE Backlight Low Profile Optical Switch Mechanical Keyboard</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>189900</v>
+        <v>1350000</v>
       </c>
       <c r="D5" t="n">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>189900</v>
+        <v>1350000</v>
       </c>
       <c r="F5" t="n">
-        <v>189900</v>
+        <v>1350000</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>KOTA TANGERANG</t>
+          <t>KOTA JAKARTA BARAT</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>158491842</v>
+        <v>310385831</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>250</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11217962329</v>
+        <v>16402145652</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Keychron K3 version 2 Hot-Swappable WHITE Backlight Low Profile Optical Switch Mechanical Keyboard</t>
+          <t>Bepop Gaming Keyboard  RGB Cable Light K500</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1350000</v>
+        <v>189900</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="E6" t="n">
-        <v>1350000</v>
+        <v>189900</v>
       </c>
       <c r="F6" t="n">
-        <v>1350000</v>
+        <v>189900</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KOTA TANGERANG</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>310385831</v>
+        <v>158491842</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>93</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -825,7 +825,7 @@
         <v>64</v>
       </c>
       <c r="O7" t="n">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="8">
@@ -883,39 +883,39 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17391389439</v>
+        <v>12431588422</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VortexSeries GT-65 Wireless Mechanical Keyboard Gasket Mount</t>
+          <t>Keyboard Gaming Mechanical AULA F-3287 TKL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>790000</v>
+        <v>275000</v>
       </c>
       <c r="D9" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>1250000</v>
+        <v>275000</v>
       </c>
       <c r="F9" t="n">
-        <v>790000</v>
+        <v>275000</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>13851998</v>
+        <v>1419657</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -989,141 +989,141 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12431588422</v>
+        <v>8273119456</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Keyboard Gaming Mechanical AULA F-3287 TKL</t>
+          <t>Rexus Keyboard Gaming Mechanical Legionare MX5.2 TKL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>275000</v>
+        <v>359000</v>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
-        <v>275000</v>
+        <v>359000</v>
       </c>
       <c r="F11" t="n">
-        <v>275000</v>
+        <v>359000</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>KOTA SURABAYA</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1419657</v>
+        <v>105238643</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>133</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8273119456</v>
+        <v>19863030778</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rexus Keyboard Gaming Mechanical Legionare MX5.2 TKL</t>
+          <t>GAMEN Titan Elite Mechanical Pluggable Switch Blue Gaming Keyboard Wired RGB LED Light PBT Keycaps Original For PC Laptop - Garansi 1 Tahun</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>359000</v>
+        <v>249222</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E12" t="n">
-        <v>359000</v>
+        <v>249222</v>
       </c>
       <c r="F12" t="n">
-        <v>359000</v>
+        <v>249222</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>KOTA SURABAYA</t>
+          <t>KOTA JAKARTA UTARA</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>105238643</v>
+        <v>262387176</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>279</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>19863030778</v>
+        <v>10875790210</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GAMEN Titan Elite Mechanical Pluggable Switch Blue Gaming Keyboard Wired RGB LED Light PBT Keycaps Original For PC Laptop - Garansi 1 Tahun</t>
+          <t>Logitech POP KEYS Keyboard Wireless Mechanical Compact, Emoji Keys</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>249222</v>
+        <v>1469000</v>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>249222</v>
+        <v>1469000</v>
       </c>
       <c r="F13" t="n">
-        <v>249222</v>
+        <v>1469000</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA UTARA</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>262387176</v>
+        <v>37146675</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -1201,35 +1201,35 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10875790210</v>
+        <v>3391980579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Logitech POP KEYS Keyboard Wireless Mechanical Compact, Emoji Keys</t>
+          <t>xinp  RGB LED Mechanical Keyboard Switch Keychain Light Up Backlit For Keyboard Switches Tester Kit</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1469000</v>
+        <v>46213</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>957</v>
       </c>
       <c r="E15" t="n">
-        <v>1469000</v>
+        <v>46213</v>
       </c>
       <c r="F15" t="n">
-        <v>1469000</v>
+        <v>46213</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>Luar Negeri</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>37146675</v>
+        <v>255025102</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1249,113 +1249,113 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3391980579</v>
+        <v>2734479808</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>xinp  RGB LED Mechanical Keyboard Switch Keychain Light Up Backlit For Keyboard Switches Tester Kit</t>
+          <t>Keyboard Gaming Multimedia Mechanical AULA F2058 - RGB Blue Switch</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46213</v>
+        <v>339000</v>
       </c>
       <c r="D16" t="n">
-        <v>957</v>
+        <v>246</v>
       </c>
       <c r="E16" t="n">
-        <v>46213</v>
+        <v>339000</v>
       </c>
       <c r="F16" t="n">
-        <v>46213</v>
+        <v>339000</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Luar Negeri</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>255025102</v>
+        <v>159852175</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="O16" t="n">
-        <v>10</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2734479808</v>
+        <v>4363488519</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Keyboard Gaming Multimedia Mechanical AULA F2058 - RGB Blue Switch</t>
+          <t>Rexus Keyboard Gaming Mechanical Legionare MX9 TKL RGB</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>339000</v>
+        <v>409000</v>
       </c>
       <c r="D17" t="n">
-        <v>246</v>
+        <v>444</v>
       </c>
       <c r="E17" t="n">
-        <v>339000</v>
+        <v>429000</v>
       </c>
       <c r="F17" t="n">
-        <v>339000</v>
+        <v>409000</v>
       </c>
       <c r="G17" t="n">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>KOTA JAKARTA UTARA</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>159852175</v>
+        <v>33415865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="O17" t="n">
-        <v>2350</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>315000</v>
       </c>
       <c r="D18" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E18" t="n">
         <v>375000</v>
@@ -1413,27 +1413,27 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11275180528</v>
+        <v>17391389439</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gaming Keyboard Mechanical Feel Pink Ungu Girl Cute LED backlight Portable gamen Mekanikal kybord and mouse Game kabel lucu mékanis kayboard Keybord external USB Wired mechanic for perempuan PC Komputer eksternal Laptop gamer keboard</t>
+          <t>VortexSeries GT-65 Wireless Mechanical Keyboard Gasket Mount</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>119000</v>
+        <v>790000</v>
       </c>
       <c r="D19" t="n">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="E19" t="n">
-        <v>199000</v>
+        <v>1250000</v>
       </c>
       <c r="F19" t="n">
-        <v>119000</v>
+        <v>790000</v>
       </c>
       <c r="G19" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1441,264 +1441,264 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>575808065</v>
+        <v>13851998</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18234661761</v>
+        <v>8919944453</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Keyboard Gaming Semi Mechanical RGB K500 Murah</t>
+          <t>Fantech MAXPOWER MK853 Mechanical Keyboard Gaming SPACE EDITION</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>129000</v>
+        <v>429000</v>
       </c>
       <c r="D20" t="n">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>129000</v>
+        <v>429000</v>
       </c>
       <c r="F20" t="n">
-        <v>129000</v>
+        <v>429000</v>
       </c>
       <c r="G20" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA UTARA</t>
+          <t>KOTA JAKARTA BARAT</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>36068322</v>
+        <v>84555100</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>80</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4363488519</v>
+        <v>14553611823</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rexus Keyboard Gaming Mechanical Legionare MX9 TKL RGB</t>
+          <t>Keyboard Gaming Mechanical Digital Alliance Meca 6 RGB LED</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>409000</v>
+        <v>348000</v>
       </c>
       <c r="D21" t="n">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
-        <v>429000</v>
+        <v>348000</v>
       </c>
       <c r="F21" t="n">
-        <v>409000</v>
+        <v>348000</v>
       </c>
       <c r="G21" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA UTARA</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>33415865</v>
+        <v>15607053</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1859</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14974869486</v>
+        <v>14592429713</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LEAVEN K550 keyboard mechanical gaming rgb murah usb blue switch red switch hotswap mechanical keyboard tkl</t>
+          <t>Koodo Solar 75% Mechanical Gaming Keyboard With Knob</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>265950</v>
+        <v>850000</v>
       </c>
       <c r="D22" t="n">
-        <v>15999209</v>
+        <v>1090</v>
       </c>
       <c r="E22" t="n">
-        <v>342000</v>
+        <v>850000</v>
       </c>
       <c r="F22" t="n">
-        <v>265950</v>
+        <v>850000</v>
       </c>
       <c r="G22" t="n">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>KAB. TANGERANG</t>
+          <t>KOTA JAKARTA UTARA</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>745869146</v>
+        <v>259907194</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>555</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20766343425</v>
+        <v>11275180528</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>K620 Type-C RGB Colorful Light Hotswap Home Gaming Wired Keyboard Mekanik Tahan Lama</t>
+          <t>Gaming Keyboard Mechanical Feel Pink Ungu Girl Cute LED backlight Portable gamen Mekanikal kybord and mouse Game kabel lucu mékanis kayboard Keybord external USB Wired mechanic for perempuan PC Komputer eksternal Laptop gamer keboard</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>229000</v>
+        <v>119000</v>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="E23" t="n">
-        <v>229000</v>
+        <v>199000</v>
       </c>
       <c r="F23" t="n">
-        <v>229000</v>
+        <v>119000</v>
       </c>
       <c r="G23" t="n">
+        <v>58</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>KOTA JAKARTA BARAT</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>575808065</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>KAB. TANGERANG</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>769714475</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14592429713</v>
+        <v>18234661761</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Koodo Solar 75% Mechanical Gaming Keyboard With Knob</t>
+          <t>Keyboard Gaming Semi Mechanical RGB K500 Murah</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>850000</v>
+        <v>129000</v>
       </c>
       <c r="D24" t="n">
-        <v>1090</v>
+        <v>329</v>
       </c>
       <c r="E24" t="n">
-        <v>850000</v>
+        <v>129000</v>
       </c>
       <c r="F24" t="n">
-        <v>850000</v>
+        <v>129000</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1706,64 +1706,64 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>259907194</v>
+        <v>36068322</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O24" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8919944453</v>
+        <v>20766343425</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fantech MAXPOWER MK853 Mechanical Keyboard Gaming SPACE EDITION</t>
+          <t>K620 Type-C RGB Colorful Light Hotswap Home Gaming Wired Keyboard Mekanik Tahan Lama</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>429000</v>
+        <v>229000</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>429000</v>
+        <v>229000</v>
       </c>
       <c r="F25" t="n">
-        <v>429000</v>
+        <v>229000</v>
       </c>
       <c r="G25" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KAB. TANGERANG</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>84555100</v>
+        <v>769714475</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>272</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1837,92 +1837,92 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14553611823</v>
+        <v>14974869486</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Keyboard Gaming Mechanical Digital Alliance Meca 6 RGB LED</t>
+          <t>LEAVEN K550 keyboard mechanical gaming rgb murah usb blue switch red switch hotswap mechanical keyboard tkl</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>348000</v>
+        <v>265950</v>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>15999209</v>
       </c>
       <c r="E27" t="n">
-        <v>348000</v>
+        <v>342000</v>
       </c>
       <c r="F27" t="n">
-        <v>348000</v>
+        <v>265950</v>
       </c>
       <c r="G27" t="n">
+        <v>106</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>KAB. TANGERANG</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>745869146</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
         <v>6</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>KOTA JAKARTA PUSAT</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>15607053</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="O27" t="n">
-        <v>55</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21848426903</v>
+        <v>15665665987</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Keyboard Hyeku Q-301 Wired Gaming Mechanical Keyboard 87 Keys Blue Switch TKL Customizable RGB Light</t>
+          <t>VortexSeries GT-6 Wireless Mechanical Keyboard Gaming Hotswappable</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>188000</v>
+        <v>690000</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>595</v>
       </c>
       <c r="E28" t="n">
-        <v>188000</v>
+        <v>890000</v>
       </c>
       <c r="F28" t="n">
-        <v>188000</v>
+        <v>690000</v>
       </c>
       <c r="G28" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>KOTA TANGERANG</t>
+          <t>KOTA JAKARTA BARAT</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>208103942</v>
+        <v>13851998</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1935,47 +1935,47 @@
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15665665987</v>
+        <v>8232452617</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VortexSeries GT-6 Wireless Mechanical Keyboard Gaming Hotswappable</t>
+          <t>Digital Alliance Meca Air 68% Wireless RGB Mechanical Gaming Keyboard</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>690000</v>
+        <v>549000</v>
       </c>
       <c r="D29" t="n">
-        <v>595</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
-        <v>890000</v>
+        <v>549000</v>
       </c>
       <c r="F29" t="n">
-        <v>690000</v>
+        <v>549000</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>13851998</v>
+        <v>34923135</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1985,250 +1985,250 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14582407783</v>
+        <v>15552773781</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LEAVEN keyboard mechanical gaming rgb wired outemu blue switch red switch hotswap keyboard mechanical tkl</t>
+          <t>Digital Alliance Keyboard Gaming Meca 6 GREY WHITE RGB LED Light Mode 61 Keys Mini Layout with Type C Detachable Cable</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="D30" t="n">
-        <v>25999523</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
-        <v>342000</v>
+        <v>350000</v>
       </c>
       <c r="F30" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="G30" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>KAB. TANGERANG</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>745869146</v>
+        <v>38316886</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>257</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8232452617</v>
+        <v>13067194127</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Digital Alliance Meca Air 68% Wireless RGB Mechanical Gaming Keyboard</t>
+          <t>GOOJODOQ Mechanical Keyboard Wireless Bluetooth 61 Keys RGB Backlight 3 Modes Hotswap Gaming Mechanical Keyboard for PC Phone</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>549000</v>
+        <v>259000</v>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E31" t="n">
-        <v>549000</v>
+        <v>458000</v>
       </c>
       <c r="F31" t="n">
-        <v>549000</v>
+        <v>259000</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>KOTA JAKARTA UTARA</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>34923135</v>
+        <v>297771167</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>39</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13067194127</v>
+        <v>22408341760</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GOOJODOQ Mechanical Keyboard Wireless Bluetooth 61 Keys RGB Backlight 3 Modes Hotswap Gaming Mechanical Keyboard for PC Phone</t>
+          <t>Akko 3098 EVA-01 Wireless Mechanical Keyboard</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>259000</v>
+        <v>900000</v>
       </c>
       <c r="D32" t="n">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
-        <v>458000</v>
+        <v>900000</v>
       </c>
       <c r="F32" t="n">
-        <v>259000</v>
+        <v>900000</v>
       </c>
       <c r="G32" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA UTARA</t>
+          <t>KOTA JAKARTA BARAT</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>297771167</v>
+        <v>69780043</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15552773781</v>
+        <v>4968235453</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Digital Alliance Keyboard Gaming Meca 6 GREY WHITE RGB LED Light Mode 61 Keys Mini Layout with Type C Detachable Cable</t>
+          <t>AKK_WS_87Pcs/Set PBT Color Matching Light-proof Mechanical Keyboard Keycaps Replacement</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>350000</v>
+        <v>158807</v>
       </c>
       <c r="D33" t="n">
-        <v>45</v>
+        <v>39996</v>
       </c>
       <c r="E33" t="n">
-        <v>350000</v>
+        <v>162259</v>
       </c>
       <c r="F33" t="n">
-        <v>350000</v>
+        <v>158807</v>
       </c>
       <c r="G33" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>Luar Negeri</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>38316886</v>
+        <v>134831265</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="O33" t="n">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22408341760</v>
+        <v>11217962329</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Akko 3098 EVA-01 Wireless Mechanical Keyboard</t>
+          <t>Keychron K3 version 2 Hot-Swappable WHITE Backlight Low Profile Optical Switch Mechanical Keyboard</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>900000</v>
+        <v>1350000</v>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34" t="n">
-        <v>900000</v>
+        <v>1350000</v>
       </c>
       <c r="F34" t="n">
-        <v>900000</v>
+        <v>1350000</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2236,11 +2236,11 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>69780043</v>
+        <v>310385831</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2253,153 +2253,153 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4968235453</v>
+        <v>21848426903</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AKK_WS_87Pcs/Set PBT Color Matching Light-proof Mechanical Keyboard Keycaps Replacement</t>
+          <t>Keyboard Hyeku Q-301 Wired Gaming Mechanical Keyboard 87 Keys Blue Switch TKL Customizable RGB Light</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>158807</v>
+        <v>188000</v>
       </c>
       <c r="D35" t="n">
-        <v>39996</v>
+        <v>45</v>
       </c>
       <c r="E35" t="n">
-        <v>162259</v>
+        <v>188000</v>
       </c>
       <c r="F35" t="n">
-        <v>158807</v>
+        <v>188000</v>
       </c>
       <c r="G35" t="n">
         <v>14</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Luar Negeri</t>
+          <t>KOTA TANGERANG</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>134831265</v>
+        <v>208103942</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11217962329</v>
+        <v>289488059</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Keychron K3 version 2 Hot-Swappable WHITE Backlight Low Profile Optical Switch Mechanical Keyboard</t>
+          <t>Keyboard Gaming NYK Eris K06, NYK K-06 Eris / NYK K06 Eris / NYK K 06 Eris</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1350000</v>
+        <v>110000</v>
       </c>
       <c r="D36" t="n">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="E36" t="n">
-        <v>1350000</v>
+        <v>140000</v>
       </c>
       <c r="F36" t="n">
-        <v>1350000</v>
+        <v>110000</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>310385831</v>
+        <v>13498691</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="O36" t="n">
-        <v>93</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>289488059</v>
+        <v>14582407783</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Keyboard Gaming NYK Eris K06, NYK K-06 Eris / NYK K06 Eris / NYK K 06 Eris</t>
+          <t>LEAVEN keyboard mechanical gaming rgb wired outemu blue switch red switch hotswap keyboard mechanical tkl</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>110000</v>
+        <v>270000</v>
       </c>
       <c r="D37" t="n">
-        <v>172</v>
+        <v>25999523</v>
       </c>
       <c r="E37" t="n">
-        <v>140000</v>
+        <v>342000</v>
       </c>
       <c r="F37" t="n">
-        <v>110000</v>
+        <v>270000</v>
       </c>
       <c r="G37" t="n">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>KAB. TANGERANG</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>13498691</v>
+        <v>745869146</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2409,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="O37" t="n">
-        <v>686</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -2473,27 +2473,27 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8795634696</v>
+        <v>11685193609</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rexus Daiva RX-D68 / RX-D68SF Mechanical Wired Gaming Keyboard</t>
+          <t>VOYAGER68 Lightyear Edition CNC Alu South Facing Mechanical Keyboard</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>479000</v>
+        <v>999000</v>
       </c>
       <c r="D39" t="n">
-        <v>6182</v>
+        <v>196</v>
       </c>
       <c r="E39" t="n">
-        <v>579000</v>
+        <v>1749000</v>
       </c>
       <c r="F39" t="n">
-        <v>479000</v>
+        <v>999000</v>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2501,27 +2501,27 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>259907194</v>
+        <v>32261917</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -2579,39 +2579,39 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11253314809</v>
+        <v>9666179465</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AKKO CS PER BOX - SWITCH MECHANICAL KEYBOARD</t>
+          <t>Rexus Keyboard Mouse Wireless KM9 Combo Original</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>198000</v>
+        <v>195000</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E41" t="n">
-        <v>198000</v>
+        <v>195000</v>
       </c>
       <c r="F41" t="n">
-        <v>198000</v>
+        <v>195000</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>KOTA JAKARTA BARAT</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>35472136</v>
+        <v>35253099</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2621,66 +2621,66 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O41" t="n">
-        <v>61</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11685193609</v>
+        <v>2418304742</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VOYAGER68 Lightyear Edition CNC Alu South Facing Mechanical Keyboard</t>
+          <t>Fantech FIGHTER II K613 Keyboard Gaming Membrane</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>999000</v>
+        <v>199000</v>
       </c>
       <c r="D42" t="n">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="E42" t="n">
-        <v>1749000</v>
+        <v>199000</v>
       </c>
       <c r="F42" t="n">
-        <v>999000</v>
+        <v>199000</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA UTARA</t>
+          <t>KOTA JAKARTA BARAT</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>32261917</v>
+        <v>84555100</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="O42" t="n">
-        <v>45</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="43">
@@ -2738,39 +2738,39 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9666179465</v>
+        <v>11253314809</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rexus Keyboard Mouse Wireless KM9 Combo Original</t>
+          <t>AKKO CS PER BOX - SWITCH MECHANICAL KEYBOARD</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>195000</v>
+        <v>198000</v>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>195000</v>
+        <v>198000</v>
       </c>
       <c r="F44" t="n">
-        <v>195000</v>
+        <v>198000</v>
       </c>
       <c r="G44" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>35253099</v>
+        <v>35472136</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2780,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>422</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -2844,133 +2844,133 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18120994985</v>
+        <v>8795634696</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fantech MAXFIT87 Hotswap RGB 5 pin Keyboard Gaming Mechanical MK856 TKL</t>
+          <t>Rexus Daiva RX-D68 / RX-D68SF Mechanical Wired Gaming Keyboard</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>579000</v>
+        <v>479000</v>
       </c>
       <c r="D46" t="n">
-        <v>27</v>
+        <v>6182</v>
       </c>
       <c r="E46" t="n">
         <v>579000</v>
       </c>
       <c r="F46" t="n">
-        <v>579000</v>
+        <v>479000</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KOTA JAKARTA UTARA</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>84555100</v>
+        <v>259907194</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O46" t="n">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>15482506056</v>
+        <v>13816389373</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KEYBOARD GAMING VARRO PRIME MAG-03 TKL USB LED // MAG03 GAMING OFFICE MULTIMEDIA // LAPTOP PC KOMPUTER ANDROID</t>
+          <t>K630W / K630 / K630W RGB / K630 RGB Redragon Mechanical Gaming Keyboard DRAGONBORN</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>98900</v>
+        <v>350000</v>
       </c>
       <c r="D47" t="n">
-        <v>23</v>
+        <v>1350</v>
       </c>
       <c r="E47" t="n">
-        <v>98900</v>
+        <v>425000</v>
       </c>
       <c r="F47" t="n">
-        <v>98900</v>
+        <v>350000</v>
       </c>
       <c r="G47" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>KOTA SURABAYA</t>
+          <t>KOTA JAKARTA BARAT</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>141727333</v>
+        <v>281008342</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12702106428</v>
+        <v>1498140715</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Redragon Mechanical Gaming Keyboard 60% WHITE PINK RAINBOW FIZZ-K617-R</t>
+          <t>Keyboard gaming sades sabre TKL RGB Backlight Membrane</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>336000</v>
+        <v>180000</v>
       </c>
       <c r="D48" t="n">
-        <v>42</v>
+        <v>27268</v>
       </c>
       <c r="E48" t="n">
-        <v>336000</v>
+        <v>190750</v>
       </c>
       <c r="F48" t="n">
-        <v>336000</v>
+        <v>180000</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2978,52 +2978,52 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>251679322</v>
+        <v>66610027</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="O48" t="n">
-        <v>158</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1467492372</v>
+        <v>11482600871</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Digital Alliance Meca Air 68% RGB Mechanical Gaming Keyboard</t>
+          <t>Digital Alliance Keyboard Gaming Meca Elite WHITE Full Keys Rainbow LED Light Outemu Switch (Blue/ Red/ Brown/ Orange)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>549000</v>
+        <v>310000</v>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E49" t="n">
-        <v>549000</v>
+        <v>310000</v>
       </c>
       <c r="F49" t="n">
-        <v>549000</v>
+        <v>310000</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3031,105 +3031,105 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>591231</v>
+        <v>38316886</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>171</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2418304742</v>
+        <v>12702106428</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fantech FIGHTER II K613 Keyboard Gaming Membrane</t>
+          <t>Redragon Mechanical Gaming Keyboard 60% WHITE PINK RAINBOW FIZZ-K617-R</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>199000</v>
+        <v>336000</v>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E50" t="n">
-        <v>199000</v>
+        <v>336000</v>
       </c>
       <c r="F50" t="n">
-        <v>199000</v>
+        <v>336000</v>
       </c>
       <c r="G50" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KOTA JAKARTA UTARA</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>84555100</v>
+        <v>251679322</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1577</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13816389373</v>
+        <v>18120994985</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>K630W / K630 / K630W RGB / K630 RGB Redragon Mechanical Gaming Keyboard DRAGONBORN</t>
+          <t>Fantech MAXFIT87 Hotswap RGB 5 pin Keyboard Gaming Mechanical MK856 TKL</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>350000</v>
+        <v>579000</v>
       </c>
       <c r="D51" t="n">
-        <v>1350</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
-        <v>425000</v>
+        <v>579000</v>
       </c>
       <c r="F51" t="n">
-        <v>350000</v>
+        <v>579000</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3137,15 +3137,15 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>281008342</v>
+        <v>84555100</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3154,47 +3154,47 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14178616577</v>
+        <v>1467492372</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Redragon K617 Fizz Mechanical Gaming Keyboard Outemu Switch</t>
+          <t>Digital Alliance Meca Air 68% RGB Mechanical Gaming Keyboard</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>315000</v>
+        <v>549000</v>
       </c>
       <c r="D52" t="n">
-        <v>9615</v>
+        <v>34</v>
       </c>
       <c r="E52" t="n">
-        <v>375000</v>
+        <v>549000</v>
       </c>
       <c r="F52" t="n">
-        <v>315000</v>
+        <v>549000</v>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA UTARA</t>
+          <t>KOTA JAKARTA PUSAT</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>259907194</v>
+        <v>591231</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3204,50 +3204,50 @@
         <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
         <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>390</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11482600871</v>
+        <v>15482506056</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Digital Alliance Keyboard Gaming Meca Elite WHITE Full Keys Rainbow LED Light Outemu Switch (Blue/ Red/ Brown/ Orange)</t>
+          <t>KEYBOARD GAMING VARRO PRIME MAG-03 TKL USB LED // MAG03 GAMING OFFICE MULTIMEDIA // LAPTOP PC KOMPUTER ANDROID</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>310000</v>
+        <v>98900</v>
       </c>
       <c r="D53" t="n">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="E53" t="n">
-        <v>310000</v>
+        <v>98900</v>
       </c>
       <c r="F53" t="n">
-        <v>310000</v>
+        <v>98900</v>
       </c>
       <c r="G53" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA PUSAT</t>
+          <t>KOTA SURABAYA</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>38316886</v>
+        <v>141727333</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3257,38 +3257,38 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1498140715</v>
+        <v>12402093990</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Keyboard gaming sades sabre TKL RGB Backlight Membrane</t>
+          <t>Redragon Mechanical Gaming Keyboard 60% WHITE GREY FIZZ - K617RGB</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>180000</v>
+        <v>392000</v>
       </c>
       <c r="D54" t="n">
-        <v>27268</v>
+        <v>180</v>
       </c>
       <c r="E54" t="n">
-        <v>190750</v>
+        <v>392000</v>
       </c>
       <c r="F54" t="n">
-        <v>180000</v>
+        <v>392000</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3296,27 +3296,27 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>66610027</v>
+        <v>251679322</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>592</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55">
@@ -3374,27 +3374,27 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12402093990</v>
+        <v>14178616577</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Redragon Mechanical Gaming Keyboard 60% WHITE GREY FIZZ - K617RGB</t>
+          <t>Redragon K617 Fizz Mechanical Gaming Keyboard Outemu Switch</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>392000</v>
+        <v>315000</v>
       </c>
       <c r="D56" t="n">
-        <v>180</v>
+        <v>9615</v>
       </c>
       <c r="E56" t="n">
-        <v>392000</v>
+        <v>375000</v>
       </c>
       <c r="F56" t="n">
-        <v>392000</v>
+        <v>315000</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3402,27 +3402,27 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>251679322</v>
+        <v>259907194</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3472,7 +3472,7 @@
         <v>215</v>
       </c>
       <c r="N57" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O57" t="n">
         <v>4240</v>
@@ -3533,27 +3533,27 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4552684948</v>
+        <v>15027483466</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Keychron K4 Hot Swappable Wireless Mechanical Keyboard (Version 2) RGB Backlight ALUMINUM Frame</t>
+          <t>【COD】Jovitech Keyboard Gaming Mechanical Blue Switch New RGB Rainbow LED - 87 Keys</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1700000</v>
+        <v>189000</v>
       </c>
       <c r="D59" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>1700000</v>
+        <v>189000</v>
       </c>
       <c r="F59" t="n">
-        <v>1700000</v>
+        <v>189000</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3561,27 +3561,27 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>310385831</v>
+        <v>409837563</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O59" t="n">
-        <v>41</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60">
@@ -3639,55 +3639,55 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15027483466</v>
+        <v>20766343425</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>【COD】Jovitech Keyboard Gaming Mechanical Blue Switch New RGB Rainbow LED - 87 Keys</t>
+          <t>K620 Type-C RGB Colorful Light Hotswap Home Gaming Wired Keyboard Mekanik Tahan Lama</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>189000</v>
+        <v>229000</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E61" t="n">
-        <v>189000</v>
+        <v>229000</v>
       </c>
       <c r="F61" t="n">
-        <v>189000</v>
+        <v>229000</v>
       </c>
       <c r="G61" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA BARAT</t>
+          <t>KAB. TANGERANG</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>409837563</v>
+        <v>769714475</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>153</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
